--- a/output.xlsx
+++ b/output.xlsx
@@ -1,37 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TP_PROGS\Projects\CodeForChangeHackathon2020\progs\OCRCFC2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C6414-A713-446F-856B-8B33DD401FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>अहवाल दिनांक</t>
+  </si>
+  <si>
+    <t>जिल्हा</t>
+  </si>
+  <si>
+    <t>गाव</t>
+  </si>
+  <si>
+    <t>गट क्रमांक व उपविभाग</t>
+  </si>
+  <si>
+    <t>तालुका</t>
+  </si>
+  <si>
+    <t>Crops Grown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/11/2020
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पुणे
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अंजनावळे
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जुन्नर
+</t>
+  </si>
+  <si>
+    <t>भात, भात, भात</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अनावळे
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">खेड
+</t>
+  </si>
+  <si>
+    <t>धरणपड|0.0200, |धरणपड0.0200, |धरणपड|0.0200</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +113,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,132 +437,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>अहवाल दिनांक</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>जिल्हा</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>गाव</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>गट क्रमांक व उपविभाग</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>तालुका</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Crops Grown</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17/11/2020
-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">पुणे
-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">अंजनावळे
-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15
-</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">जुन्नर
-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>भात, भात, भात</t>
-        </is>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17/11/2020
-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">पुणे
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">अनावळे
-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20
-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">खेड
-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>धरणपड|0.0200, |धरणपड0.0200, |धरणपड|0.0200</t>
-        </is>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,104 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TP_PROGS\Projects\CodeForChangeHackathon2020\progs\OCRCFC2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C6414-A713-446F-856B-8B33DD401FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>अहवाल दिनांक</t>
-  </si>
-  <si>
-    <t>जिल्हा</t>
-  </si>
-  <si>
-    <t>गाव</t>
-  </si>
-  <si>
-    <t>गट क्रमांक व उपविभाग</t>
-  </si>
-  <si>
-    <t>तालुका</t>
-  </si>
-  <si>
-    <t>Crops Grown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/11/2020
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुणे
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अंजनावळे
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जुन्नर
-</t>
-  </si>
-  <si>
-    <t>भात, भात, भात</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अनावळे
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">खेड
-</t>
-  </si>
-  <si>
-    <t>धरणपड|0.0200, |धरणपड0.0200, |धरणपड|0.0200</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,43 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -437,113 +421,532 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>अहवाल दिनांक</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>जिल्हा</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>गाव</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>गट क्रमांक व उपविभाग</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>तालुका</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Crops Grown</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17/11/2020
+</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">पुणे
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">अंजनावळे
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">जुन्नर
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>भात, भात, भात</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17/11/2020
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">पुणे
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">अनावळे
+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">खेड
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>धरणपड|0.0200, |धरणपड0.0200, |धरणपड|0.0200</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/11/2020
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">पुणे
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">आंबी
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">हवेली
+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>भात, खरीप, भात</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/11/2020
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">पूणे
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">कामठवाडी
+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45/1/ब
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1000, रब्बी, 0.1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/11/2020
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">पूणे
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">कामठवाडी
+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55/1
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>रब्बी, रब्बी, रब्बी</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/11/2020
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">पुणे
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">इंदापूर
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32/10
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">इंदापुर
+</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>र.रु.900000/-कर्ज.(13129), सीमाआणिभुमापनचिन्हे:, संपूर्णवर्ष, संपूर्णवर्ष, संपूर्णवर्ष</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/11/2020
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">पुणे
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">इंगवली
+</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">भोर
+</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>र.रु.300000/-कर्ज.(1576), भात, खरीप, भात</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/11/2020
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">पुणे
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">आंबी
+</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">हवेली
+</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0200, खरीप, 0.0200</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19/11/2020
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">पुणे
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">आंबी
+</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25
+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">हवेली
+</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>भात, खरीप, भात</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18/11/2929
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10/2
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ठाणे
+</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>७/१२, गाव:-, भात, 19, ई</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18/11/2929
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1/2/अ
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ठाणे
+</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>७/१२, गाव:-, गवत, 19, ई</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18/11/2929
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ठाणे
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1/3/ब/4
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>७/१२, गाव:-, भात, 19, ईमहा।</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">17/11/2020
+          <t xml:space="preserve">19/11/2020
 </t>
         </is>
       </c>
@@ -484,25 +484,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">अंजनावळे
+          <t xml:space="preserve">आंबी
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">जुन्नर
+          <t xml:space="preserve">हवेली
 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>भात, भात, भात</t>
+          <t>भात, खरीप, भात</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">17/11/2020
+          <t xml:space="preserve">19/11/2020
 </t>
         </is>
       </c>
@@ -524,25 +524,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">अनावळे
+          <t xml:space="preserve">आंबी
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">45
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">खेड
+          <t xml:space="preserve">हवेली
 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>धरणपड|0.0200, |धरणपड0.0200, |धरणपड|0.0200</t>
+          <t>0.0200, खरीप, 0.0200</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
@@ -583,366 +583,6 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>भात, खरीप, भात</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19/11/2020
-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">पूणे
-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">कामठवाडी
-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">45/1/ब
-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1000, रब्बी, 0.1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19/11/2020
-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">पूणे
-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">कामठवाडी
-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">55/1
-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>रब्बी, रब्बी, रब्बी</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19/11/2020
-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">पुणे
-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">इंदापूर
-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">32/10
-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">इंदापुर
-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>र.रु.900000/-कर्ज.(13129), सीमाआणिभुमापनचिन्हे:, संपूर्णवर्ष, संपूर्णवर्ष, संपूर्णवर्ष</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19/11/2020
-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">पुणे
-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">इंगवली
-</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">89
-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">भोर
-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>र.रु.300000/-कर्ज.(1576), भात, खरीप, भात</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19/11/2020
-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">पुणे
-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">आंबी
-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">45
-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">हवेली
-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0200, खरीप, 0.0200</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19/11/2020
-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">पुणे
-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">आंबी
-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">हवेली
-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>भात, खरीप, भात</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18/11/2929
-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10/2
-</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ठाणे
-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>७/१२, गाव:-, भात, 19, ई</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18/11/2929
-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1/2/अ
-</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ठाणे
-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>७/१२, गाव:-, गवत, 19, ई</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18/11/2929
-</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ठाणे
-</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1/3/ब/4
-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>७/१२, गाव:-, भात, 19, ईमहा।</t>
         </is>
       </c>
     </row>
